--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C469186C-DF9F-449A-B11D-3AC045BB786A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC11AFF-0382-400A-826F-95BD6D789F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>Username</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>incorrect password</t>
-  </si>
-  <si>
-    <t>Handgreat99</t>
   </si>
   <si>
     <t>SendMessageTest</t>
@@ -573,7 +570,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -634,9 +631,6 @@
       <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
@@ -655,7 +649,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -702,7 +696,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2"/>
     </row>
@@ -720,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
